--- a/biology/Médecine/George_H._Jackson_(diplomate)/George_H._Jackson_(diplomate).xlsx
+++ b/biology/Médecine/George_H._Jackson_(diplomate)/George_H._Jackson_(diplomate).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Henry Jackson (né à Natick le 28 février 1863 et mort le 13 novembre 1943[1]), est un médecin, diplomate et dirigeant sportif américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Henry Jackson (né à Natick le 28 février 1863 et mort le 13 novembre 1943), est un médecin, diplomate et dirigeant sportif américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de la Natick High School (en) et de l'université de Madison, George Henry Jackson obtient ses diplômes de médecine et de STB de l'université Yale en 1892.
 Engagé comme missionnaire médical dans l'État indépendant du Congo de 1893 à 1895, sa santé l'oblige à rentré aux États-Unis, à New Haven. Après deux ans en tant qu'assistant instructeur en médecine clinique à la Yale School of Medicine (en), il passe dans le service consulaire en 1897. Il est nommé consul en France, à La Rochelle (1898-1908) puis à Cognac (1908-1914). Il gagne une réputation de maître dégustateur de brandy et reçoit des distinctions et d'excellentes notes pour son travail consulaire jusqu'en 1909. Les inspecteurs du département en 1907, 1910 et 1912 note que Jackson est très apprécié dans son district.
@@ -545,9 +559,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tribune George-Henry-Jackson, stade Marcel-Deflandre[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tribune George-Henry-Jackson, stade Marcel-Deflandre</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Biographical Dictionary of American Physicians of African Ancestry, 1800-1920, 2013
